--- a/biology/Médecine/Modèles_compartimentaux_en_épidémiologie/Modèles_compartimentaux_en_épidémiologie.xlsx
+++ b/biology/Médecine/Modèles_compartimentaux_en_épidémiologie/Modèles_compartimentaux_en_épidémiologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mod%C3%A8les_compartimentaux_en_%C3%A9pid%C3%A9miologie</t>
+          <t>Modèles_compartimentaux_en_épidémiologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les modèles mathématiques de maladies infectieuses, d'abord outils purement théoriques, ont commencé à être mis en pratique avec le problème du SIDA dans les années 1980. Lors de la pandémie Covid 19, les modélisations mathématiques ont connu un essor lors de la prise de décision relatives aux politiques de santé publique et a également contribué à l'épidémiosurveillance de la maladie. 
 Bien avant cela, depuis la pandémie de grippe espagnole, des modèles compartimentaux sont utilisés pour faciliter les calculs de probabilité de contagion. Ces modèles divisent la population en classes épidémiologiques. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mod%C3%A8les_compartimentaux_en_%C3%A9pid%C3%A9miologie</t>
+          <t>Modèles_compartimentaux_en_épidémiologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cours d'une épidémie dans une population dépend de paramètres complexes et très nombreux (stades cliniques possibles, déplacement des individus, souches de la maladie).
 Les modèles mathématiques se sont peu à peu affirmés comme outils d'aide à la décision pour les politiques publiques[C 1] car permettant de prévoir les conséquences sanitaires d'actions aussi variées que la vaccination, la mise en quarantaine ou la distribution de tests de dépistage.
-Une approche fondatrice fut celle des modèles compartimentaux créés en 1927 par Anderson Gray McKendrick et William Ogilvy Kermack ; elle fut ensuite étendue par ces derniers dans deux autres articles scientifiques quelques années plus tard (1932 et 1933)[1]. Le principe est de diviser la population en classes épidémiologiques telles que les individus susceptibles d'être infectés, ceux qui sont infectieux, et ceux qui ont acquis une immunité à la suite de la guérison. Depuis, cette approche est utilisée pour modéliser de nombreuses maladies, et continue d'être un sujet de recherche actif en prenant en compte de nouveaux éléments tels que les découvertes de la science des réseaux.
+Une approche fondatrice fut celle des modèles compartimentaux créés en 1927 par Anderson Gray McKendrick et William Ogilvy Kermack ; elle fut ensuite étendue par ces derniers dans deux autres articles scientifiques quelques années plus tard (1932 et 1933). Le principe est de diviser la population en classes épidémiologiques telles que les individus susceptibles d'être infectés, ceux qui sont infectieux, et ceux qui ont acquis une immunité à la suite de la guérison. Depuis, cette approche est utilisée pour modéliser de nombreuses maladies, et continue d'être un sujet de recherche actif en prenant en compte de nouveaux éléments tels que les découvertes de la science des réseaux.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mod%C3%A8les_compartimentaux_en_%C3%A9pid%C3%A9miologie</t>
+          <t>Modèles_compartimentaux_en_épidémiologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compartiments et règles
-Un modèle épidémiologique se fonde sur deux concepts : les compartiments et les règles. Les compartiments divisent la population en divers états possibles par rapport à la maladie. Par exemple, William Ogilvy Kermack et Anderson Gray McKendrick proposèrent un modèle fondateur dans lequel la population était divisée entre les individus susceptibles de contracter la maladie (compartiment 
+          <t>Compartiments et règles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un modèle épidémiologique se fonde sur deux concepts : les compartiments et les règles. Les compartiments divisent la population en divers états possibles par rapport à la maladie. Par exemple, William Ogilvy Kermack et Anderson Gray McKendrick proposèrent un modèle fondateur dans lequel la population était divisée entre les individus susceptibles de contracter la maladie (compartiment 
         S
     {\displaystyle S}
 ), et les individus infectieux (compartiment 
@@ -649,8 +668,43 @@
         C
     {\displaystyle C}
  représente les individus porteurs de la maladie (carriers) mais qui n'en expriment pas les symptômes.
-Représentation mathématique à l'aide d'équations différentielles
-Les modèles compartimentaux permettent d'estimer comment le nombre d'individus dans chaque compartiment varie au cours du temps. Par abus de notation, la lettre utilisée pour représenter un compartiment est également employée pour représenter le nombre d'individus dans le compartiment. Par exemple, S est utilisé dans une équation pour représenter le nombre d'individus sains. Une formulation plus rigoureuse, et parfois employée, consiste à utiliser S(t) à la place de S, ce qui explicite qu'il s'agit d'une fonction et que le nombre dépend du temps 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Modèles_compartimentaux_en_épidémiologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mod%C3%A8les_compartimentaux_en_%C3%A9pid%C3%A9miologie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principes fondamentaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Représentation mathématique à l'aide d'équations différentielles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les modèles compartimentaux permettent d'estimer comment le nombre d'individus dans chaque compartiment varie au cours du temps. Par abus de notation, la lettre utilisée pour représenter un compartiment est également employée pour représenter le nombre d'individus dans le compartiment. Par exemple, S est utilisé dans une équation pour représenter le nombre d'individus sains. Une formulation plus rigoureuse, et parfois employée, consiste à utiliser S(t) à la place de S, ce qui explicite qu'il s'agit d'une fonction et que le nombre dépend du temps 
         t
     {\displaystyle t}
 . Pour savoir comment le nombre d'individus dans un compartiment varie au cours du temps, il est nécessaire de savoir comment déduire le nombre d'individus d'une étape à une autre, c'est-à-dire du temps 
@@ -693,7 +747,7 @@
         p
         I
     {\displaystyle pI}
- est appelée la force d'infection. Cela exprime que l'effectif d'individus sains diminue à proportion du nombre d’individus déjà infectés et du nombre d'individus encore non-infectés. L'équation mettant en relation la fonction S et sa dérivée, il s'agit d'une équation différentielle, d'ailleurs absolument semblable à la cinétique d'une réaction chimique élémentaire bimoléculaire[2]. Dans les modèles simples, ces équations sont des équations différentielles ordinaires (EDO, ou ODE en anglais). Si la proportion d'individus infectieux retirés de la population est 
+ est appelée la force d'infection. Cela exprime que l'effectif d'individus sains diminue à proportion du nombre d’individus déjà infectés et du nombre d'individus encore non-infectés. L'équation mettant en relation la fonction S et sa dérivée, il s'agit d'une équation différentielle, d'ailleurs absolument semblable à la cinétique d'une réaction chimique élémentaire bimoléculaire. Dans les modèles simples, ces équations sont des équations différentielles ordinaires (EDO, ou ODE en anglais). Si la proportion d'individus infectieux retirés de la population est 
         α
     {\displaystyle \alpha }
 , alors 
@@ -793,9 +847,44 @@
         0.0178
     {\displaystyle \alpha =0.0178}
 . Brauer conclut : « Le message que cela suggère aux mathématiciens est que les stratégies de contrôle fondées sur des modèles erronés peuvent être dangereuses, et qu'il est essentiel de distinguer entre les hypothèses qui simplifient mais ne changent pas substantiellement les effets prédits, et les hypothèses erronées qui font une différence importante »[C 4].
-Nombre de reproduction de base (R0)
-Pour toute maladie, un enjeu sanitaire majeur est de savoir si elle se propage dans la population et à quelle vitesse (temps de doublement). Ceci revient à calculer le nombre moyen d'individus qu'une personne infectieuse infecte tant qu'elle est contagieuse. Ce taux est appelé le nombre de reproduction de base, et est noté R0 (ratio).
-Ce taux est intuitivement facile à comprendre, mais s'il est lié au pathogène, son calcul s'avère complexe[3]. Le R0 doit être utilisé avec prudence, car il peut conduire à des erreurs d'interprétation, tant sur le rôle réel que ce R0 a sur la propagation d'une maladie infectieuse qu'aux capacités de contrôle d'une épidémie[3]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Modèles_compartimentaux_en_épidémiologie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mod%C3%A8les_compartimentaux_en_%C3%A9pid%C3%A9miologie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principes fondamentaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nombre de reproduction de base (R0)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour toute maladie, un enjeu sanitaire majeur est de savoir si elle se propage dans la population et à quelle vitesse (temps de doublement). Ceci revient à calculer le nombre moyen d'individus qu'une personne infectieuse infecte tant qu'elle est contagieuse. Ce taux est appelé le nombre de reproduction de base, et est noté R0 (ratio).
+Ce taux est intuitivement facile à comprendre, mais s'il est lié au pathogène, son calcul s'avère complexe. Le R0 doit être utilisé avec prudence, car il peut conduire à des erreurs d'interprétation, tant sur le rôle réel que ce R0 a sur la propagation d'une maladie infectieuse qu'aux capacités de contrôle d'une épidémie. 
 Le calcul du R0 présuppose une population où tous les individus sont sains, sauf l'individu infectieux introduit (le patient zéro). Si 
           R
             0
@@ -980,56 +1069,96 @@
         t
         )
     {\displaystyle R(t)}
- (nombre de reproduction à l'instant t, ou instantaneous reproduction number pour les anglophones)[4].
-Limites à l'utilisation du R0
-Le R0 est nécessairement basé sur des simplifications et il dépend de très nombreux facteurs[5], en partie imprédictibles (ex : conjonction d'un tremblement de terre, d'un évènement météorologique, socioéconomique ou d'une crise politique ou d'une guerre dans un contexte d'épidémie). 
-Le choix des modèles (et des paramètres qu'on y entre) influe sur les résultats. Ainsi, en un mois (entre le 1er janvier 2020 et le 7 février 2020), 12 équipes scientifiques ont cherché à calculer le R0 de la maladie Covid-19, en utilisant différents modèles et données. Leurs résultats s'étalaient entre 1,5 et 6,68 [5].
-Selon Bauch &amp; al. (2020) un tel manque de concordance est normal et peut avoir 3 raisons[6] :
+ (nombre de reproduction à l'instant t, ou instantaneous reproduction number pour les anglophones).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Modèles_compartimentaux_en_épidémiologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mod%C3%A8les_compartimentaux_en_%C3%A9pid%C3%A9miologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principes fondamentaux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Limites à l'utilisation du R0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le R0 est nécessairement basé sur des simplifications et il dépend de très nombreux facteurs, en partie imprédictibles (ex : conjonction d'un tremblement de terre, d'un évènement météorologique, socioéconomique ou d'une crise politique ou d'une guerre dans un contexte d'épidémie). 
+Le choix des modèles (et des paramètres qu'on y entre) influe sur les résultats. Ainsi, en un mois (entre le 1er janvier 2020 et le 7 février 2020), 12 équipes scientifiques ont cherché à calculer le R0 de la maladie Covid-19, en utilisant différents modèles et données. Leurs résultats s'étalaient entre 1,5 et 6,68 .
+Selon Bauch &amp; al. (2020) un tel manque de concordance est normal et peut avoir 3 raisons :
 Les variables considérées diffèrent ;
 Les méthodes de modélisation diffèrent ;
 Les procédures d’estimation diffèrent.
-Dans le cas du Covid-19, Liu &amp; al. (2020) notent que les études utilisant des méthodes déterministes ont produit des estimations plus élevées que celles utilisant des modèles stochastiques et statistiques[7].
-Estimer ce R0 suppose que le nombre d'infections secondaires produites par un seul cas ne varie pas [6]. En réalité, le virus peut muter et devenir plus ou moins contagieux ou infectieux au cours de sa propagation. On sait également qu'il existe des individus superinfecteurs; ainsi, pour la CoVid-19, une seule personne venant d'une conférence à Singapour via le Royaume-Uni aurait transmis l'infection à onze personnes pendant ses vacances en France[8]. Enfin, des événements de super-infection jouent une grande importance quand un seul sujet, éventuellement asymptomatique, infecte de nombreuses autres personnes lors de fêtes, de mariage, de cérémonie religieuse (comme on l'a vu avec les maladies SRAS et MERS [9] et Covid19).
-Aucun modèle ne peut prendre en compte toute l'hétérogénéité spatiotemporelle d'un contexte écoépidémiologique, ni même le degré de transmissibilité ou la vulnérabilité à une infection. En outre, dans le monde réel, le nombre reproductif de base (R0) est constamment modifié au cours de l'épidémie, notamment par les mesures barrières et les mesures de contrôle adoptées ou imposées pour justement réduire le R0, en agissant sur[10] : 
+Dans le cas du Covid-19, Liu &amp; al. (2020) notent que les études utilisant des méthodes déterministes ont produit des estimations plus élevées que celles utilisant des modèles stochastiques et statistiques.
+Estimer ce R0 suppose que le nombre d'infections secondaires produites par un seul cas ne varie pas . En réalité, le virus peut muter et devenir plus ou moins contagieux ou infectieux au cours de sa propagation. On sait également qu'il existe des individus superinfecteurs; ainsi, pour la CoVid-19, une seule personne venant d'une conférence à Singapour via le Royaume-Uni aurait transmis l'infection à onze personnes pendant ses vacances en France. Enfin, des événements de super-infection jouent une grande importance quand un seul sujet, éventuellement asymptomatique, infecte de nombreuses autres personnes lors de fêtes, de mariage, de cérémonie religieuse (comme on l'a vu avec les maladies SRAS et MERS  et Covid19).
+Aucun modèle ne peut prendre en compte toute l'hétérogénéité spatiotemporelle d'un contexte écoépidémiologique, ni même le degré de transmissibilité ou la vulnérabilité à une infection. En outre, dans le monde réel, le nombre reproductif de base (R0) est constamment modifié au cours de l'épidémie, notamment par les mesures barrières et les mesures de contrôle adoptées ou imposées pour justement réduire le R0, en agissant sur : 
 La durée de la contagiosité ;
 La probabilité d'infection par contact ;
 Le taux de contact.
-Ainsi la quarantaine peut se montrer remarquablement efficace, surtout dans le cadre d'efforts mondiaux bien coordonnés, pour freiner la propagation de la maladie puis éviter sa réapparition[11]. 
-Le nombre reproductif de contrôle (Rc) désigne la valeur de R en présence de mesures de contrôle ; si Rc est maintenu à des valeurs inférieures à un, alors la maladie est finalement éradiquée[12]. 
-Viceconte &amp; Petrosillo (2020) rappellent qu'une tendance épidémique (ou notre capacité à la contrôler) ne repose pas uniquement sur R0[5]. Parmi les autres variables à prendre en compte figurent : le nombre de cas initiaux ; le délai entre l'apparition des symptômes et l'isolement ; le traçage rapide des contacts probables ; le taux de transmissions survenues avant l'apparition des symptômes et la part des infections subcliniques (asymptomatiques)[3],[6],[13].
-Le nombre de reproduction effectif (Re) est le nombre de reproduction tenant compte des personnes déjà immunisées[14].
+Ainsi la quarantaine peut se montrer remarquablement efficace, surtout dans le cadre d'efforts mondiaux bien coordonnés, pour freiner la propagation de la maladie puis éviter sa réapparition. 
+Le nombre reproductif de contrôle (Rc) désigne la valeur de R en présence de mesures de contrôle ; si Rc est maintenu à des valeurs inférieures à un, alors la maladie est finalement éradiquée. 
+Viceconte &amp; Petrosillo (2020) rappellent qu'une tendance épidémique (ou notre capacité à la contrôler) ne repose pas uniquement sur R0. Parmi les autres variables à prendre en compte figurent : le nombre de cas initiaux ; le délai entre l'apparition des symptômes et l'isolement ; le traçage rapide des contacts probables ; le taux de transmissions survenues avant l'apparition des symptômes et la part des infections subcliniques (asymptomatiques).
+Le nombre de reproduction effectif (Re) est le nombre de reproduction tenant compte des personnes déjà immunisées.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mod%C3%A8les_compartimentaux_en_%C3%A9pid%C3%A9miologie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Modèles_compartimentaux_en_épidémiologie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mod%C3%A8les_compartimentaux_en_%C3%A9pid%C3%A9miologie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Extensions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hétérogénéité des populations réelles
-Dans les modèles compartimentaux, la seule particularité d'un individu est la classe épidémiologique à laquelle il appartient. Ceci permet de distinguer les individus en établissant des classes pour différents comportements : par exemple, dans des maladies sexuelles telles que le SIDA, il peut exister une classe pour les individus ayant un comportement à risque élevé (forte fréquence de rapports sexuels, rapports non protégés...) et une autre pour les individus ayant un comportement moins risqué[A 3]. En créant de telles classes, les individus peuvent avoir des attributs prenant un petit nombre de valeurs : le comportement est ainsi un attribut, et risque élevé ou risque normal constituent ses deux valeurs. La population dans les modèles compartimentaux est ainsi hétérogène, c'est-à-dire que tous les individus ne sont pas absolument identiques. Autrement dit, les individus ne sont identiques que pour les attributs n'étant pas explicitement représentés dans une classe.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hétérogénéité des populations réelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les modèles compartimentaux, la seule particularité d'un individu est la classe épidémiologique à laquelle il appartient. Ceci permet de distinguer les individus en établissant des classes pour différents comportements : par exemple, dans des maladies sexuelles telles que le SIDA, il peut exister une classe pour les individus ayant un comportement à risque élevé (forte fréquence de rapports sexuels, rapports non protégés...) et une autre pour les individus ayant un comportement moins risqué[A 3]. En créant de telles classes, les individus peuvent avoir des attributs prenant un petit nombre de valeurs : le comportement est ainsi un attribut, et risque élevé ou risque normal constituent ses deux valeurs. La population dans les modèles compartimentaux est ainsi hétérogène, c'est-à-dire que tous les individus ne sont pas absolument identiques. Autrement dit, les individus ne sont identiques que pour les attributs n'étant pas explicitement représentés dans une classe.
 Les recherches du début des années 2000 à 2010 ont mis en avant le fait que les individus étaient très différents dans leur nombre de contacts[E 2]. Certains individus peuvent ainsi avoir une poignée d'amis, ce qui limite leur exposition à des maladies infectieuses, tandis que d'autres peuvent être extrêmement sociaux, ce qui augmente la probabilité qu'ils soient infectés. Deux exemples de ces différences entre individus sont données par Bansal, Grenfell et Meyers[E 3]. Premièrement, en 2003, deux voyageurs développèrent un syndrome respiratoire aigu sévère, et l'un engendra 200 cas à Toronto tandis qu'aucun ne fut reporté pour l'autre à Vancouver. Deuxièmement, 60 % des infections lors de l'épidémie de gonorrhée de 1984 aux États-Unis provenaient de 2 % de la population. Bien qu'il soit possible de prendre en compte le nombre de contacts des individus en utilisant des classes, cette approche est inadaptée. En effet, les classes ne permettent pas d'analyser la structure de la population et ses conséquences pour les maladies : il est possible de dire qu'un individu a plus de contacts qu'un autre, mais il est par exemple impossible de déterminer quels individus vacciner en priorité selon le rôle qu'ils jouent dans la population. Dans un cas simplifié, la population pourrait être constituée de deux communautés ne se côtoyant que par le biais d'un individu, et vacciner cet individu empêcherait la maladie de se répandre d'une communauté à l'autre[E 1].
 Prendre en compte le fait que les individus ont différents nombres de contact peut être réalisé sans avoir besoin de représenter explicitement les contacts par un graphe tel qu'illustré ci-contre. Parmi les approches, celle de Pastor-Satorras and Vespignani est une des plus citées et consiste à modifier les équations différentielles pour y inclure les différences en nombre de contacts[E 4]. Les auteurs s'intéressent à un modèle SIS, c'est-à-dire que les individus sont susceptibles, peuvent devenir infectés et redeviennent susceptibles lors de la guérison ; il n'y a donc pas de décès ou d'immunité acquise. La proportion d'individus infectés au temps 
         t
@@ -1168,8 +1297,43 @@
         3
     {\displaystyle 2&lt;\gamma \leq 3}
  et la population est considérée de taille infinie. Des études récentes[E 1] ont montré que toutes les hypothèses doivent être simultanément vérifiées pour parvenir au résultat. Par exemple, il suffit de considérer un modèle compartimental autre que SIS ou une population avec davantage de propriétés pour trouver de nouveau des conditions dans lesquelles la maladie ne peut plus se propager.
-Déplacements
-La population réelle est répartie dans plusieurs villes. À l'intérieur d'une ville, les individus peuvent se contaminer. Un individu contaminé peut se déplacer dans une autre ville et y propager la maladie, et d'une façon similaire un individu sain peut se déplacer dans une ville où il sera infecté et ramener la maladie dans sa ville d'origine. Modéliser ces aspects permet de prendre en compte l'évolution de la maladie dans un espace. Le modèle de Bartlett est cité par Arino[C 11] comme le premier à avoir pris en compte l'aspect spatial. Les individus sont dans deux états possibles, 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Modèles_compartimentaux_en_épidémiologie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mod%C3%A8les_compartimentaux_en_%C3%A9pid%C3%A9miologie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Extensions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Déplacements</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La population réelle est répartie dans plusieurs villes. À l'intérieur d'une ville, les individus peuvent se contaminer. Un individu contaminé peut se déplacer dans une autre ville et y propager la maladie, et d'une façon similaire un individu sain peut se déplacer dans une ville où il sera infecté et ramener la maladie dans sa ville d'origine. Modéliser ces aspects permet de prendre en compte l'évolution de la maladie dans un espace. Le modèle de Bartlett est cité par Arino[C 11] comme le premier à avoir pris en compte l'aspect spatial. Les individus sont dans deux états possibles, 
         S
     {\displaystyle S}
  et 
@@ -1246,8 +1410,43 @@
     {\displaystyle i}
  comme pouvant être susceptibles, dans la période d'incubation (c'est-à-dire qu'ils ont été infectés mais ne le savent pas encore car la maladie ne s'est pas déclarée) ou infectieux. L'hypothèse est que les individus, ou les compagnies aériennes, appliquent un principe de précaution : les individus infectieux ne voyagent pas, tandis que les autres y sont autorisés. Ainsi, comme dans la réalité, la maladie peut être véhiculée par des individus en période d'incubation. Afin d'être réaliste, le modèle calcule le nombre d'individus prenant des vols à partir du nombre d'habitants dans des grandes villes mondiales. La zone des villes et le mois sont également utilisés pour prendre en compte les variations saisonnières de la grippe[A 4]. En considérant un ensemble de villes entre lesquelles les individus dans certains états peuvent se déplacer, ce modèle montre la nécessité d'une modélisation sous forme de multi-graphe[C 11]. Concrètement, un multi-graphe décrit les lieux par des sommets, et deux lieux peuvent être reliés par autant d'arcs qu'il y a d'états permettant de s'y rendre. Par exemple, si les individus sains et en période d'incubation peuvent se rendre de Paris à Manille, alors Paris et Manille sont représentés par deux sommets, et il existe deux arcs allant de Paris à Manille : le premier représente le flot de passagers sains, et le second le flot de passagers en période d'incubation.
 Les travaux de Fromont, Pontier et Langlais cités par Arino s'intéressent à une maladie se transmettant entre les chats : ainsi qu'ils le notent, « les structures sociales et spatiales des chats changent selon la densité », qui va de 1 jusqu'à 2000 chats par km²[A 5]. Les auteurs considèrent les chats dans deux types de lieux : les « fermes » et les « villages ». Dans les fermes, il y a peu de chats et tous se rencontrent donc, tandis que dans un village le nombre de chats est trop élevé pour qu'ils soient tous en contact. Ainsi, la maladie fonctionne différemment selon le lieu considéré, ce qui est rarement appliqué à des modèles avec déplacement. Arino suggère que conjuguer le déplacement avec l'hétérogénéité de la population constitue une piste pour des recherches futures[C 11].
-Prise en compte de l'âge
-L'âge peut être un facteur important de la diffusion d'une maladie pour deux raisons. Premièrement, la résistance des sujets peut dépendre de l'âge. Un exemple extrême consiste à séparer les enfants des adultes : dans le cas de d'épidémies de rougeole aux États-Unis en 1827 et 1828, la population étudiée était composée à 21 % d'enfants mais ceux-ci représentaient 44 % des décès[A 7]. Deuxièmement, le comportement des sujets change avec l'âge : ainsi, il est considéré que la probabilité qu'un individu s'engage dans une activité sexuelle à risque décroît avec l'âge, et des modèles prennent en compte l'impact de l'âge sur des aspects tels que le taux de changements de partenaires sexuels[A 8]. La prise en compte de l'âge se fait en utilisant une nouvelle variable 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Modèles_compartimentaux_en_épidémiologie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mod%C3%A8les_compartimentaux_en_%C3%A9pid%C3%A9miologie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Extensions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prise en compte de l'âge</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'âge peut être un facteur important de la diffusion d'une maladie pour deux raisons. Premièrement, la résistance des sujets peut dépendre de l'âge. Un exemple extrême consiste à séparer les enfants des adultes : dans le cas de d'épidémies de rougeole aux États-Unis en 1827 et 1828, la population étudiée était composée à 21 % d'enfants mais ceux-ci représentaient 44 % des décès[A 7]. Deuxièmement, le comportement des sujets change avec l'âge : ainsi, il est considéré que la probabilité qu'un individu s'engage dans une activité sexuelle à risque décroît avec l'âge, et des modèles prennent en compte l'impact de l'âge sur des aspects tels que le taux de changements de partenaires sexuels[A 8]. La prise en compte de l'âge se fait en utilisant une nouvelle variable 
         a
     {\displaystyle a}
 . Ainsi, dans le modèle SIR, les quantités d'individus infectés au temps 
@@ -1541,8 +1740,43 @@
               r
               ′
     {\displaystyle dS_{a,r}/dt=-qS_{a,r}\sum _{a'}c_{a,a'}\sum _{r'}I_{a',r'}}
-Population proactive : agir face à la maladie
-Comme « beaucoup de modèles de transmission des maladies », les modèles exposés dans les sections précédentes « considèrent une population passive qui ne répondra pas (changera son comportement) face à la diffusion d'une maladie infectieuse »[C 15]. Cependant, il existe des campagnes pour sensibiliser la population, comme la Journée mondiale de lutte contre le SIDA, ou pour inciter à la vaccination. Des campagnes de masse peuvent déboucher sur des résultats très faibles, tels que la prise d'un test par moins de 1 % du public concerné[C 15]. Ainsi, l'étude de la façon dont la population réagit face à l'information fait partie de certains modèles épidémiologiques[C 15],[C 16].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Modèles_compartimentaux_en_épidémiologie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mod%C3%A8les_compartimentaux_en_%C3%A9pid%C3%A9miologie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Extensions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Population proactive : agir face à la maladie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme « beaucoup de modèles de transmission des maladies », les modèles exposés dans les sections précédentes « considèrent une population passive qui ne répondra pas (changera son comportement) face à la diffusion d'une maladie infectieuse »[C 15]. Cependant, il existe des campagnes pour sensibiliser la population, comme la Journée mondiale de lutte contre le SIDA, ou pour inciter à la vaccination. Des campagnes de masse peuvent déboucher sur des résultats très faibles, tels que la prise d'un test par moins de 1 % du public concerné[C 15]. Ainsi, l'étude de la façon dont la population réagit face à l'information fait partie de certains modèles épidémiologiques[C 15],[C 16].
 Il suffit qu'une proportion donnée de la population acquière une immunité protectrice, par une infection ou par vaccination, pour qu'elle serve de tampon au reste de la population. Ce principe, appelé immunité grégaire, repose sur le fait qu'en diminuant le nombre d'individus infectés et infectieux, on diminue significativement la probabilité qu'un individu sensible soit infecté.
 Si p est la proportion de la population qu'il faut immuniser pour bloquer le déclenchement d’une épidémie 
         p
